--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felid\Desktop\SDL_Work\work\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536C370-CE62-4310-9092-2DAD846A662B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BAFE77-42FD-4AB8-9A7B-F60D7D164D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24FF8BF3-BED0-4600-85A3-92A465A8CA95}"/>
   </bookViews>
@@ -73,7 +73,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -117,122 +117,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +431,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1809,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1871,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1939,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2001,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2072,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2134,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>

--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felid\Desktop\SDL_Work\work\work_SNAproj\tmpAsset\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\1205mrwork\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BAFE77-42FD-4AB8-9A7B-F60D7D164D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24FF8BF3-BED0-4600-85A3-92A465A8CA95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFC9630-C517-49D5-96A1-3304D5585A84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -781,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -899,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1029,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1088,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1327,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1339,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1401,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1460,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1522,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1575,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1637,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2183,6 +2182,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>&lt;/pallet&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/Block_Shadow.gpmesh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,15 +78,108 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -427,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -659,28 +766,28 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
@@ -721,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -780,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -845,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -898,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -910,25 +1017,25 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
@@ -1087,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1146,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1196,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1258,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1276,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1320,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1335,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1400,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1444,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1506,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1521,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1568,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1636,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1648,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1754,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1769,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1999,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2017,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2061,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2111,25 +2218,25 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2138,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2168,12 +2275,2293 @@
         <v>0</v>
       </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 U3:XFD34">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:T34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2182,6 +4570,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>&lt;/pallet&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Assets/Block_Shadow.gpmesh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;decor&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/decor&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background.csv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,7 +149,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border>
@@ -160,7 +172,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -534,198 +546,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
@@ -1014,28 +855,28 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
@@ -1076,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1135,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1203,25 +1044,25 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
@@ -1253,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1321,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1383,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1439,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1551,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1569,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1613,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1628,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1675,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1737,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1755,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1799,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1861,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1876,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1941,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1991,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2062,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2109,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2177,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2239,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2295,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2354,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2372,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2416,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2425,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2466,40 +2307,40 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2523,12 +2364,198 @@
         <v>0</v>
       </c>
       <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A36:XFD1048576 A4:T35 U1:XFD35">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2545,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4554,11 +4581,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 U3:XFD34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:T34">

--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\1205mrwork\work_SNAproj\tmpAsset\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,9 +540,9 @@
       <selection sqref="A1:T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2543,15 +2543,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2562,12 +2562,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2608,28 +2608,46 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2670,28 +2688,46 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2732,28 +2768,46 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2794,28 +2848,46 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2856,28 +2928,46 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2918,28 +3008,46 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2980,28 +3088,46 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3042,28 +3168,46 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3104,28 +3248,46 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3166,28 +3328,46 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3228,28 +3408,46 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3290,28 +3488,46 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3352,28 +3568,46 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3414,28 +3648,46 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3476,28 +3728,46 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3538,28 +3808,46 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3600,28 +3888,46 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3662,28 +3968,46 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3724,28 +4048,46 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3786,28 +4128,46 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3848,28 +4208,46 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3910,28 +4288,46 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3972,28 +4368,46 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
@@ -4034,28 +4448,46 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4096,28 +4528,46 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4158,28 +4608,46 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4220,28 +4688,46 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4282,28 +4768,46 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4344,28 +4848,46 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4406,28 +4928,46 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4468,28 +5008,46 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4548,12 +5106,30 @@
         <v>0</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 U3:XFD34">
+  <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 AA3:XFD34">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4561,7 +5137,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:T34">
+  <conditionalFormatting sqref="A3:Z34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +89,139 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -534,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -603,8 +735,20 @@
       <c r="T1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -665,8 +809,20 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -727,8 +883,20 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -789,8 +957,20 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -840,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -851,8 +1031,20 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -902,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -913,8 +1105,20 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -964,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -975,8 +1179,20 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1037,8 +1253,20 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1099,8 +1327,20 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1161,8 +1401,20 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1223,8 +1475,20 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1285,8 +1549,20 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1347,8 +1623,20 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1409,8 +1697,20 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1471,8 +1771,20 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1533,8 +1845,20 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1595,8 +1919,20 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1657,8 +1993,20 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1719,8 +2067,20 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1781,8 +2141,20 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1843,8 +2215,20 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1905,8 +2289,20 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1967,8 +2363,20 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2029,8 +2437,20 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2091,8 +2511,20 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2153,8 +2585,20 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2215,8 +2659,20 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2277,8 +2733,20 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2339,8 +2807,20 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2401,8 +2881,20 @@
       <c r="T30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2463,8 +2955,20 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2523,16 +3027,28 @@
         <v>0</v>
       </c>
       <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2545,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
@@ -5130,18 +5646,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 AA3:XFD34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:Z34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tmpAsset/map/Map01.xlsx
+++ b/tmpAsset/map/Map01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\work_SNAproj\tmpAsset\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\1215mr\work_SNAproj\tmpAsset\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="4">
   <si>
     <t>&lt;/pallet&gt;</t>
     <phoneticPr fontId="1"/>
@@ -34,11 +34,17 @@
     <t>Assets/Block_Shadow.gpmesh</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +95,102 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -312,52 +413,14 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8585"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -668,13 +731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -687,8 +750,8 @@
       <c r="D1">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -748,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -761,8 +824,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -822,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -835,8 +898,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -896,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -909,8 +972,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -970,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -983,8 +1046,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1019,8 +1082,8 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>9</v>
+      <c r="Q5" t="s">
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1044,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1057,8 +1120,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1093,8 +1156,8 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>9</v>
+      <c r="Q6" t="s">
+        <v>3</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1118,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1131,8 +1194,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1167,8 +1230,8 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>9</v>
+      <c r="Q7" t="s">
+        <v>3</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1192,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1205,8 +1268,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1229,44 +1292,44 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1279,8 +1342,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1303,8 +1366,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1340,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1353,8 +1416,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1374,11 +1437,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1414,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1427,8 +1490,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1451,8 +1514,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1488,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1501,8 +1564,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1516,8 +1579,8 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="J12" t="s">
+        <v>2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1525,8 +1588,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1562,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1575,8 +1638,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1599,8 +1662,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1636,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1649,8 +1712,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1670,11 +1733,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1710,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1723,8 +1786,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1741,14 +1804,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1784,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1797,8 +1860,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1821,8 +1884,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1858,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1871,11 +1934,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1895,8 +1958,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1932,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1945,14 +2008,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1969,8 +2032,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2006,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2019,14 +2082,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2043,8 +2106,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2080,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2093,8 +2156,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2114,11 +2177,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2154,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2167,8 +2230,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2191,8 +2254,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>2</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2228,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2241,8 +2304,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2259,14 +2322,14 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="M22" t="s">
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2302,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2315,8 +2378,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2339,8 +2402,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>2</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2376,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2389,8 +2452,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2398,11 +2461,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2413,8 +2476,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>1</v>
+      <c r="M24" t="s">
+        <v>2</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2450,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2463,8 +2526,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2487,8 +2550,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2524,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2537,11 +2600,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2561,8 +2624,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="M26" t="s">
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2598,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2611,8 +2674,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2635,8 +2698,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2672,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2685,8 +2748,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2694,11 +2757,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2709,8 +2772,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="M28" t="s">
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2746,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2759,8 +2822,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2783,8 +2846,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="M29" t="s">
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2820,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2851,14 +2914,14 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2894,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2931,8 +2994,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="M31" t="s">
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2968,45 +3031,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3045,11 +3108,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>1</formula>
+    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="b">
+      <formula>LEFT(A1,LEN("b"))="b"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:X32">
+    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="g">
+      <formula>LEFT(A1,LEN("g"))="g"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,9 +3133,9 @@
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3078,12 +3146,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3163,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3243,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3323,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3403,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3483,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3563,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3643,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3723,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3803,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3883,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3963,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4043,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4123,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4203,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4283,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4363,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4443,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4523,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4603,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4683,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4763,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4843,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4923,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5003,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5083,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5163,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5243,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5323,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5403,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5483,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5563,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5646,18 +5714,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD2 A35:XFD1048576 AA3:XFD34">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:Z34">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
